--- a/caches/beer-names.xlsx
+++ b/caches/beer-names.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="128">
   <si>
     <t xml:space="preserve">SAFE SPACE</t>
   </si>
@@ -401,6 +401,9 @@
   </si>
   <si>
     <t xml:space="preserve">Imperial Stout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appl Crisp</t>
   </si>
 </sst>
 </file>
@@ -517,10 +520,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A68" activeCellId="0" sqref="A68:C85"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A89" activeCellId="0" sqref="89:89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1463,6 +1466,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/caches/beer-names.xlsx
+++ b/caches/beer-names.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="132">
   <si>
     <t xml:space="preserve">SAFE SPACE</t>
   </si>
@@ -404,6 +404,18 @@
   </si>
   <si>
     <t xml:space="preserve">Appl Crisp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHITE MOUNTAIN WHITE ALE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White Mountain Ale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUIRREL FIGHTS NUT BROWN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OKTOBERFEST MARZEN</t>
   </si>
 </sst>
 </file>
@@ -520,14 +532,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A89" activeCellId="0" sqref="89:89"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D75" activeCellId="0" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.71"/>
   </cols>
   <sheetData>
@@ -1474,6 +1487,39 @@
         <v>107</v>
       </c>
       <c r="C86" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C89" s="0" t="s">
         <v>4</v>
       </c>
     </row>

--- a/caches/beer-names.xlsx
+++ b/caches/beer-names.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="136">
   <si>
     <t xml:space="preserve">SAFE SPACE</t>
   </si>
@@ -416,6 +416,18 @@
   </si>
   <si>
     <t xml:space="preserve">OKTOBERFEST MARZEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOGGER LAGER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logger Lager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA MAPLE BROWN ALE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JALAPENO CREAM ALE</t>
   </si>
 </sst>
 </file>
@@ -532,10 +544,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D75" activeCellId="0" sqref="D75"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A50" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B91" activeCellId="0" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1523,6 +1535,39 @@
         <v>4</v>
       </c>
     </row>
+    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/caches/beer-names.xlsx
+++ b/caches/beer-names.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="148">
   <si>
     <t xml:space="preserve">SAFE SPACE</t>
   </si>
@@ -428,6 +428,42 @@
   </si>
   <si>
     <t xml:space="preserve">JALAPENO CREAM ALE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WICKED SAFE SPACE NEIPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINDING NEIPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAKE TIME CHERRY WHEAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake Time Cherry Wheat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEFS CZECH PILSNER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chef’s Czech Pils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARKET HAZE NE IPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Market Haze IPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHANDYMAN WHEAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shandyman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAMPSHA HEFFE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HONEY DEW LIST WHEAT ALE</t>
   </si>
 </sst>
 </file>
@@ -544,10 +580,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A50" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B91" activeCellId="0" sqref="B91"/>
+      <selection pane="topLeft" activeCell="C100" activeCellId="0" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1568,6 +1604,94 @@
         <v>4</v>
       </c>
     </row>
+    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/caches/beer-names.xlsx
+++ b/caches/beer-names.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="166">
   <si>
     <t xml:space="preserve">SAFE SPACE</t>
   </si>
@@ -145,99 +145,105 @@
     <t xml:space="preserve">AMERICAN</t>
   </si>
   <si>
+    <t xml:space="preserve">American</t>
+  </si>
+  <si>
     <t xml:space="preserve">CANS&amp;IRON</t>
   </si>
   <si>
+    <t xml:space="preserve">Can &amp; Irons IPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Town Pound Ported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILK STOUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milk Stout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TROPC ANNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tropic Anna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA MAPLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barrel Aged Maple Brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WKD S SPACE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEREVINO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerevino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barrel Aged Stout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NITRO MILK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitro Milk Stout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRINCIPAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CereVino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pandora Kettle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA Maple Brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maple Brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gov'nah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wicked Safe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhino's Fly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Live Free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pond Hockey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalepeno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalepeno Cream Ale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dbl Safe Space</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cans&amp;Irons</t>
   </si>
   <si>
-    <t xml:space="preserve">PORTER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Town Pound Ported</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MILK STOUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milk Stout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TROPC ANNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tropic Anna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA MAPLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barrel Aged Maple Brown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WKD S SPACE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEREVINO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerevino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barrel Aged Stout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NITRO MILK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nitro Milk Stout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRINCIPAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Principal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CereVino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pandora Kettle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA Maple Brown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maple Brown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gov'nah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wicked Safe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhino's Fly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Live Free</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pond Hockey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jalepeno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jalepeno Cream Ale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dbl Safe Space</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hampsha Blu Lmn</t>
   </si>
   <si>
@@ -464,6 +470,54 @@
   </si>
   <si>
     <t xml:space="preserve">HONEY DEW LIST WHEAT ALE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANS &amp; IRONS IPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEE HEAVY SCOTTISH ALE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wee Heavy Scottish Ale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Four River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dbl Safe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wick Safe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pand Kett</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pandora’s Kettle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appl Cri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA Stout m-CN 8oz 4pk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Squir Fi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pond Hoc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coff St</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conquer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fairway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okto</t>
   </si>
 </sst>
 </file>
@@ -473,7 +527,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -502,6 +556,12 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -546,7 +606,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom"/>
       <protection hidden="false" locked="true"/>
@@ -560,6 +620,10 @@
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -580,16 +644,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A50" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C100" activeCellId="0" sqref="C100"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D108" activeCellId="0" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -817,7 +881,7 @@
         <v>40</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -825,10 +889,10 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
@@ -836,10 +900,10 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
@@ -847,10 +911,10 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -858,10 +922,10 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -869,10 +933,10 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -880,7 +944,7 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>18</v>
@@ -891,10 +955,10 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -902,10 +966,10 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -913,10 +977,10 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -924,10 +988,10 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -946,10 +1010,10 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
@@ -957,10 +1021,10 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
@@ -979,10 +1043,10 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
@@ -990,10 +1054,10 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
@@ -1001,10 +1065,10 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
@@ -1023,10 +1087,10 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
@@ -1034,10 +1098,10 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
@@ -1056,10 +1120,10 @@
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
@@ -1067,10 +1131,10 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
@@ -1078,7 +1142,7 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>8</v>
@@ -1089,10 +1153,10 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
@@ -1100,10 +1164,10 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
@@ -1111,7 +1175,7 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>1</v>
@@ -1122,10 +1186,10 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>4</v>
@@ -1133,10 +1197,10 @@
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>4</v>
@@ -1144,10 +1208,10 @@
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>4</v>
@@ -1155,7 +1219,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>20</v>
@@ -1166,10 +1230,10 @@
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>4</v>
@@ -1177,10 +1241,10 @@
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>4</v>
@@ -1188,10 +1252,10 @@
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>4</v>
@@ -1199,10 +1263,10 @@
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>4</v>
@@ -1210,10 +1274,10 @@
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>4</v>
@@ -1221,10 +1285,10 @@
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>4</v>
@@ -1232,10 +1296,10 @@
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>4</v>
@@ -1243,10 +1307,10 @@
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>4</v>
@@ -1254,10 +1318,10 @@
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>4</v>
@@ -1265,10 +1329,10 @@
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>4</v>
@@ -1276,10 +1340,10 @@
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>4</v>
@@ -1287,10 +1351,10 @@
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>4</v>
@@ -1298,10 +1362,10 @@
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>4</v>
@@ -1309,10 +1373,10 @@
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>4</v>
@@ -1320,10 +1384,10 @@
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>4</v>
@@ -1331,7 +1395,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>1</v>
@@ -1342,10 +1406,10 @@
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>4</v>
@@ -1353,7 +1417,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>39</v>
@@ -1364,7 +1428,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>25</v>
@@ -1375,10 +1439,10 @@
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>4</v>
@@ -1386,10 +1450,10 @@
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>4</v>
@@ -1397,7 +1461,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>8</v>
@@ -1408,10 +1472,10 @@
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>4</v>
@@ -1419,10 +1483,10 @@
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>4</v>
@@ -1430,10 +1494,10 @@
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>4</v>
@@ -1441,7 +1505,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>37</v>
@@ -1452,10 +1516,10 @@
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>4</v>
@@ -1463,10 +1527,10 @@
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>4</v>
@@ -1474,10 +1538,10 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>29</v>
@@ -1485,10 +1549,10 @@
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>4</v>
@@ -1496,7 +1560,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>23</v>
@@ -1507,7 +1571,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>33</v>
@@ -1518,10 +1582,10 @@
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>4</v>
@@ -1529,10 +1593,10 @@
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C86" s="0" t="s">
         <v>4</v>
@@ -1540,10 +1604,10 @@
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C87" s="0" t="s">
         <v>4</v>
@@ -1551,10 +1615,10 @@
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>4</v>
@@ -1562,10 +1626,10 @@
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C89" s="0" t="s">
         <v>4</v>
@@ -1573,10 +1637,10 @@
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>4</v>
@@ -1584,10 +1648,10 @@
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C91" s="0" t="s">
         <v>4</v>
@@ -1595,10 +1659,10 @@
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C92" s="0" t="s">
         <v>4</v>
@@ -1606,7 +1670,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>18</v>
@@ -1617,7 +1681,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>31</v>
@@ -1628,10 +1692,10 @@
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C95" s="0" t="s">
         <v>4</v>
@@ -1639,10 +1703,10 @@
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>4</v>
@@ -1650,10 +1714,10 @@
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>4</v>
@@ -1661,10 +1725,10 @@
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>4</v>
@@ -1672,10 +1736,10 @@
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>4</v>
@@ -1683,12 +1747,166 @@
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C100" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C114" s="0" t="s">
         <v>4</v>
       </c>
     </row>

--- a/caches/beer-names.xlsx
+++ b/caches/beer-names.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="179">
   <si>
     <t xml:space="preserve">SAFE SPACE</t>
   </si>
@@ -518,6 +518,45 @@
   </si>
   <si>
     <t xml:space="preserve">Okto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PINA COLADA SOUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pina Colada Sour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLUEBERRY COGGLER WHEAT ALE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blueberry Coggler Wheat Ale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE OCHO DIPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Ocho Dipa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRISH STOUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irish Stout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHITE MOUNTAIN WHITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White Mountain White Ale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White Mtn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pina Colada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blueberry Coggl</t>
   </si>
 </sst>
 </file>
@@ -644,10 +683,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:C123"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D108" activeCellId="0" sqref="D108"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B121" activeCellId="0" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1837,7 +1876,7 @@
       <c r="A108" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C108" s="0" t="s">
@@ -1859,7 +1898,7 @@
       <c r="A110" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C110" s="0" t="s">
@@ -1907,6 +1946,105 @@
         <v>78</v>
       </c>
       <c r="C114" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C123" s="0" t="s">
         <v>4</v>
       </c>
     </row>
